--- a/pdfs/VESTUNB_23.xlsx
+++ b/pdfs/VESTUNB_23.xlsx
@@ -2310,9 +2310,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2335,6 +2335,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2653,82 +2656,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="3"/>
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2842,9 @@
       <c r="AI2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2806,7 +2883,9 @@
       <c r="AI3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2845,7 +2924,9 @@
       <c r="AI4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2896,7 +2977,9 @@
       <c r="AI5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +3026,9 @@
       <c r="AI6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -3046,7 +3131,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3085,7 +3172,9 @@
       <c r="AI8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -3190,7 +3279,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3295,7 +3386,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
@@ -3400,7 +3493,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
@@ -3505,7 +3600,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="30">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
@@ -3610,7 +3707,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="30">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
@@ -3715,7 +3814,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>109</v>
       </c>
@@ -3820,7 +3921,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>126</v>
       </c>
@@ -3925,7 +4028,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>142</v>
       </c>
@@ -4030,7 +4135,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -4135,7 +4242,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>174</v>
       </c>
@@ -4240,7 +4349,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>188</v>
       </c>
@@ -4345,7 +4456,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>202</v>
       </c>
@@ -4450,7 +4563,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>216</v>
       </c>
@@ -4555,7 +4670,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>231</v>
       </c>
@@ -4660,7 +4777,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="30">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>244</v>
       </c>
@@ -4765,7 +4884,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="30">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>256</v>
       </c>
@@ -4870,7 +4991,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>268</v>
       </c>
@@ -4975,7 +5098,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>278</v>
       </c>
@@ -5080,7 +5205,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="30">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>290</v>
       </c>
@@ -5185,7 +5312,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>303</v>
       </c>
@@ -5290,7 +5419,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>312</v>
       </c>
@@ -5395,7 +5526,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>321</v>
       </c>
@@ -5500,7 +5633,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>329</v>
       </c>
@@ -5605,7 +5740,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>343</v>
       </c>
@@ -5710,7 +5847,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>365</v>
       </c>
@@ -5815,7 +5954,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>382</v>
       </c>
@@ -5920,7 +6061,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>391</v>
       </c>
@@ -6025,7 +6168,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>404</v>
       </c>
@@ -6130,7 +6275,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>420</v>
       </c>
@@ -6235,7 +6382,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>429</v>
       </c>
@@ -6340,7 +6489,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
       <c r="B40" s="4" t="s">
         <v>450</v>
       </c>
@@ -6445,7 +6596,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>462</v>
       </c>
@@ -6484,7 +6637,9 @@
       <c r="AI41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="4" t="s">
         <v>463</v>
       </c>
@@ -6589,7 +6744,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="4" t="s">
         <v>479</v>
       </c>
@@ -6694,7 +6851,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>491</v>
       </c>
@@ -6799,7 +6958,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="B45" s="4" t="s">
         <v>507</v>
       </c>
@@ -6904,7 +7065,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
       <c r="B46" s="4" t="s">
         <v>524</v>
       </c>
@@ -7009,7 +7172,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>535</v>
       </c>
@@ -7114,7 +7279,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>541</v>
       </c>
@@ -7219,7 +7386,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="B49" s="4" t="s">
         <v>553</v>
       </c>
@@ -7324,7 +7493,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="4" t="s">
         <v>559</v>
       </c>
@@ -7429,7 +7600,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="B51" s="4" t="s">
         <v>568</v>
       </c>
@@ -7534,7 +7707,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="4" t="s">
         <v>576</v>
       </c>
@@ -7639,7 +7814,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="4" t="s">
         <v>582</v>
       </c>
@@ -7744,7 +7921,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
       <c r="B54" s="4" t="s">
         <v>591</v>
       </c>
@@ -7849,7 +8028,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
       <c r="B55" s="4" t="s">
         <v>603</v>
       </c>
@@ -7954,7 +8135,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
       <c r="B56" s="4" t="s">
         <v>613</v>
       </c>
@@ -8059,7 +8242,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="B57" s="4" t="s">
         <v>625</v>
       </c>
@@ -8098,7 +8283,9 @@
       <c r="AI57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="B58" s="4" t="s">
         <v>626</v>
       </c>
@@ -8203,7 +8390,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="B59" s="4" t="s">
         <v>639</v>
       </c>
@@ -8308,7 +8497,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="B60" s="4" t="s">
         <v>654</v>
       </c>
@@ -8413,7 +8604,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="B61" s="4" t="s">
         <v>678</v>
       </c>
@@ -8452,7 +8645,9 @@
       <c r="AI61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="B62" s="4" t="s">
         <v>679</v>
       </c>
@@ -8557,7 +8752,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>701</v>
       </c>
@@ -8596,7 +8793,9 @@
       <c r="AI63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="B64" s="4" t="s">
         <v>702</v>
       </c>
@@ -8701,7 +8900,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="B65" s="4" t="s">
         <v>707</v>
       </c>
@@ -8806,7 +9007,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="B66" s="4" t="s">
         <v>462</v>
       </c>
@@ -8845,7 +9048,9 @@
       <c r="AI66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="B67" s="4" t="s">
         <v>715</v>
       </c>
@@ -8950,7 +9155,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="B68" s="4" t="s">
         <v>731</v>
       </c>
@@ -9055,7 +9262,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5" t="s">
         <v>741</v>
@@ -9094,7 +9303,9 @@
       <c r="AI69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -9133,7 +9344,9 @@
       <c r="AI70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5" t="s">
         <v>743</v>
@@ -9172,7 +9385,9 @@
       <c r="AI71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
         <v>744</v>
@@ -9211,7 +9426,9 @@
       <c r="AI72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5" t="s">
         <v>745</v>
@@ -9250,7 +9467,9 @@
       <c r="AI73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>746</v>
       </c>
@@ -9293,8 +9512,8 @@
       <c r="AI74" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
